--- a/Code/Results/Cases/Case_5_122/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_122/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9956665060060202</v>
+        <v>1.028784482558156</v>
       </c>
       <c r="D2">
-        <v>1.014243875252665</v>
+        <v>1.031106560225713</v>
       </c>
       <c r="E2">
-        <v>1.008879030502458</v>
+        <v>1.037373818706158</v>
       </c>
       <c r="F2">
-        <v>1.011058179750874</v>
+        <v>1.045197633122813</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043744877169024</v>
+        <v>1.030645842577517</v>
       </c>
       <c r="J2">
-        <v>1.017977608225048</v>
+        <v>1.033934879726482</v>
       </c>
       <c r="K2">
-        <v>1.02550827379818</v>
+        <v>1.03391563697029</v>
       </c>
       <c r="L2">
-        <v>1.020216036892635</v>
+        <v>1.040164886640484</v>
       </c>
       <c r="M2">
-        <v>1.022365576623857</v>
+        <v>1.047966548433424</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.000485985363262</v>
+        <v>1.029788170279179</v>
       </c>
       <c r="D3">
-        <v>1.01768906218149</v>
+        <v>1.031822661745746</v>
       </c>
       <c r="E3">
-        <v>1.013050021576653</v>
+        <v>1.038300522135754</v>
       </c>
       <c r="F3">
-        <v>1.015910568779835</v>
+        <v>1.046291838035138</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044995179503184</v>
+        <v>1.030808273457226</v>
       </c>
       <c r="J3">
-        <v>1.020963410689477</v>
+        <v>1.034579045482416</v>
       </c>
       <c r="K3">
-        <v>1.028100502522938</v>
+        <v>1.034440480933844</v>
       </c>
       <c r="L3">
-        <v>1.023518604126664</v>
+        <v>1.040901074917713</v>
       </c>
       <c r="M3">
-        <v>1.026343839282877</v>
+        <v>1.048871408493036</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003535379175917</v>
+        <v>1.030437600828379</v>
       </c>
       <c r="D4">
-        <v>1.01986825260854</v>
+        <v>1.032285477444552</v>
       </c>
       <c r="E4">
-        <v>1.015695502986526</v>
+        <v>1.038900590218198</v>
       </c>
       <c r="F4">
-        <v>1.018989069433119</v>
+        <v>1.047000598492137</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045770181876654</v>
+        <v>1.030911346223459</v>
       </c>
       <c r="J4">
-        <v>1.022849079911207</v>
+        <v>1.034995266394261</v>
       </c>
       <c r="K4">
-        <v>1.029732656293429</v>
+        <v>1.034778872226354</v>
       </c>
       <c r="L4">
-        <v>1.025608117079643</v>
+        <v>1.041377241684063</v>
       </c>
       <c r="M4">
-        <v>1.028863590327164</v>
+        <v>1.049457058461462</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004801413197975</v>
+        <v>1.030710615713436</v>
       </c>
       <c r="D5">
-        <v>1.020772768769725</v>
+        <v>1.032479912409638</v>
       </c>
       <c r="E5">
-        <v>1.016795337505183</v>
+        <v>1.039152960796598</v>
       </c>
       <c r="F5">
-        <v>1.020269151354991</v>
+        <v>1.047298737200053</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046088018847837</v>
+        <v>1.030954191198927</v>
       </c>
       <c r="J5">
-        <v>1.023631079390437</v>
+        <v>1.035170102035964</v>
       </c>
       <c r="K5">
-        <v>1.030408304572447</v>
+        <v>1.034920839546412</v>
       </c>
       <c r="L5">
-        <v>1.026475570462612</v>
+        <v>1.041577374598863</v>
       </c>
       <c r="M5">
-        <v>1.029910322932902</v>
+        <v>1.049703299845839</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005013069042799</v>
+        <v>1.030756455769146</v>
       </c>
       <c r="D6">
-        <v>1.020923970344943</v>
+        <v>1.032512551078431</v>
       </c>
       <c r="E6">
-        <v>1.016979294832779</v>
+        <v>1.039195340884218</v>
       </c>
       <c r="F6">
-        <v>1.020483270491588</v>
+        <v>1.047348806294415</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046140922291443</v>
+        <v>1.030961356493581</v>
       </c>
       <c r="J6">
-        <v>1.023761761067949</v>
+        <v>1.0351994492692</v>
       </c>
       <c r="K6">
-        <v>1.030521141320587</v>
+        <v>1.03494465931475</v>
       </c>
       <c r="L6">
-        <v>1.026620586802433</v>
+        <v>1.041610974987312</v>
       </c>
       <c r="M6">
-        <v>1.030085349846812</v>
+        <v>1.049744646842831</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003552357787894</v>
+        <v>1.030441248889518</v>
       </c>
       <c r="D7">
-        <v>1.019880383958957</v>
+        <v>1.032288076017131</v>
       </c>
       <c r="E7">
-        <v>1.015710246863182</v>
+        <v>1.038903962006546</v>
       </c>
       <c r="F7">
-        <v>1.019006228711046</v>
+        <v>1.04700458154603</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045774459941015</v>
+        <v>1.030911920633764</v>
       </c>
       <c r="J7">
-        <v>1.022859570749408</v>
+        <v>1.034997603121807</v>
       </c>
       <c r="K7">
-        <v>1.029741725234244</v>
+        <v>1.034780770350541</v>
       </c>
       <c r="L7">
-        <v>1.025619750672972</v>
+        <v>1.041379916057647</v>
       </c>
       <c r="M7">
-        <v>1.028877625616055</v>
+        <v>1.049460348617486</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9973099695200631</v>
+        <v>1.029123687990597</v>
       </c>
       <c r="D8">
-        <v>1.015418791721347</v>
+        <v>1.031348683273746</v>
       </c>
       <c r="E8">
-        <v>1.010299987197836</v>
+        <v>1.037686913194885</v>
       </c>
       <c r="F8">
-        <v>1.012711110910726</v>
+        <v>1.04556727191969</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044174574989786</v>
+        <v>1.030701156989108</v>
       </c>
       <c r="J8">
-        <v>1.018996492652776</v>
+        <v>1.03415270189175</v>
       </c>
       <c r="K8">
-        <v>1.026393878854546</v>
+        <v>1.03409326211532</v>
       </c>
       <c r="L8">
-        <v>1.021342222981678</v>
+        <v>1.04041372519336</v>
       </c>
       <c r="M8">
-        <v>1.023721611500295</v>
+        <v>1.048272319757126</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9857509593588096</v>
+        <v>1.026801818607666</v>
       </c>
       <c r="D9">
-        <v>1.00715555572892</v>
+        <v>1.029689190448959</v>
       </c>
       <c r="E9">
-        <v>1.000334998175082</v>
+        <v>1.035545635706725</v>
       </c>
       <c r="F9">
-        <v>1.001121895014844</v>
+        <v>1.043040215130842</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041086499706168</v>
+        <v>1.030314237353928</v>
       </c>
       <c r="J9">
-        <v>1.011817120218476</v>
+        <v>1.032659328914762</v>
       </c>
       <c r="K9">
-        <v>1.020133596102735</v>
+        <v>1.032872493271132</v>
       </c>
       <c r="L9">
-        <v>1.013422642604731</v>
+        <v>1.038709696391907</v>
       </c>
       <c r="M9">
-        <v>1.014196796441569</v>
+        <v>1.046179996570819</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9776245016876934</v>
+        <v>1.025253814436939</v>
       </c>
       <c r="D10">
-        <v>1.001350219842964</v>
+        <v>1.028580126586299</v>
       </c>
       <c r="E10">
-        <v>0.9933683548622169</v>
+        <v>1.034120389714617</v>
       </c>
       <c r="F10">
-        <v>0.9930218872755036</v>
+        <v>1.04135935013802</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038834566709902</v>
+        <v>1.030045886450925</v>
       </c>
       <c r="J10">
-        <v>1.006754892240889</v>
+        <v>1.031660721950384</v>
       </c>
       <c r="K10">
-        <v>1.015695138372584</v>
+        <v>1.032052446663378</v>
       </c>
       <c r="L10">
-        <v>1.007858387005861</v>
+        <v>1.037572717384434</v>
       </c>
       <c r="M10">
-        <v>1.007518287168457</v>
+        <v>1.044785909037275</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9739950142790118</v>
+        <v>1.024583492176191</v>
       </c>
       <c r="D11">
-        <v>0.9987596068651623</v>
+        <v>1.028099253690401</v>
       </c>
       <c r="E11">
-        <v>0.9902669170798654</v>
+        <v>1.033503789475113</v>
       </c>
       <c r="F11">
-        <v>0.9894160203006123</v>
+        <v>1.040632433129845</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037810573214945</v>
+        <v>1.0299272267649</v>
       </c>
       <c r="J11">
-        <v>1.00449112637764</v>
+        <v>1.031227603061432</v>
       </c>
       <c r="K11">
-        <v>1.013704953155611</v>
+        <v>1.031695895887648</v>
       </c>
       <c r="L11">
-        <v>1.005374749313014</v>
+        <v>1.037080171633254</v>
       </c>
       <c r="M11">
-        <v>1.004540333790108</v>
+        <v>1.044182448012638</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9726292175541238</v>
+        <v>1.024334500767586</v>
       </c>
       <c r="D12">
-        <v>0.997785186698161</v>
+        <v>1.027920540753367</v>
       </c>
       <c r="E12">
-        <v>0.9891014069966015</v>
+        <v>1.033274838493953</v>
       </c>
       <c r="F12">
-        <v>0.9880609317034582</v>
+        <v>1.040362560637946</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037422586932409</v>
+        <v>1.029882781895309</v>
       </c>
       <c r="J12">
-        <v>1.003638892069944</v>
+        <v>1.031066616368233</v>
       </c>
       <c r="K12">
-        <v>1.012954942404661</v>
+        <v>1.031563237590667</v>
       </c>
       <c r="L12">
-        <v>1.004440428474002</v>
+        <v>1.036897184641552</v>
       </c>
       <c r="M12">
-        <v>1.003420496528992</v>
+        <v>1.043958324354161</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9729230011862081</v>
+        <v>1.024387910444246</v>
       </c>
       <c r="D13">
-        <v>0.9979947631846396</v>
+        <v>1.027958879583721</v>
       </c>
       <c r="E13">
-        <v>0.9893520363941005</v>
+        <v>1.033323945545775</v>
       </c>
       <c r="F13">
-        <v>0.9883523290439725</v>
+        <v>1.040420443005336</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03750616136275</v>
+        <v>1.029892332177841</v>
       </c>
       <c r="J13">
-        <v>1.003822223680069</v>
+        <v>1.031101153397776</v>
       </c>
       <c r="K13">
-        <v>1.013116318046916</v>
+        <v>1.031591703166298</v>
       </c>
       <c r="L13">
-        <v>1.004641387474082</v>
+        <v>1.036936437484557</v>
       </c>
       <c r="M13">
-        <v>1.003661337814393</v>
+        <v>1.044006398337861</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9738824831753931</v>
+        <v>1.024562910547347</v>
       </c>
       <c r="D14">
-        <v>0.9986793125194178</v>
+        <v>1.02808448316252</v>
       </c>
       <c r="E14">
-        <v>0.9901708555625826</v>
+        <v>1.033484862643568</v>
       </c>
       <c r="F14">
-        <v>0.9893043342193241</v>
+        <v>1.040610122591801</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03777865950823</v>
+        <v>1.029923560470435</v>
       </c>
       <c r="J14">
-        <v>1.004420915933082</v>
+        <v>1.031214298032477</v>
       </c>
       <c r="K14">
-        <v>1.013643179744356</v>
+        <v>1.031684934784614</v>
       </c>
       <c r="L14">
-        <v>1.005297762317825</v>
+        <v>1.03706504655373</v>
       </c>
       <c r="M14">
-        <v>1.004448051593452</v>
+        <v>1.044163921294784</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.974471282023873</v>
+        <v>1.024670733375118</v>
       </c>
       <c r="D15">
-        <v>0.9990994569987869</v>
+        <v>1.028161859068883</v>
       </c>
       <c r="E15">
-        <v>0.9906735449821804</v>
+        <v>1.033584019835006</v>
       </c>
       <c r="F15">
-        <v>0.9898887860501366</v>
+        <v>1.04072700858945</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037945534755455</v>
+        <v>1.029942752320873</v>
       </c>
       <c r="J15">
-        <v>1.004788264956222</v>
+        <v>1.031283996003652</v>
       </c>
       <c r="K15">
-        <v>1.013966354069314</v>
+        <v>1.031742348800371</v>
       </c>
       <c r="L15">
-        <v>1.005700595007724</v>
+        <v>1.037144282410615</v>
       </c>
       <c r="M15">
-        <v>1.004930933923559</v>
+        <v>1.044260980193173</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9778629621012912</v>
+        <v>1.025298300970698</v>
       </c>
       <c r="D16">
-        <v>1.001520480392867</v>
+        <v>1.028612027115221</v>
       </c>
       <c r="E16">
-        <v>0.9935723367563724</v>
+        <v>1.034161322882121</v>
       </c>
       <c r="F16">
-        <v>0.9932590452816372</v>
+        <v>1.041407612398603</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038901471942387</v>
+        <v>1.030053709675769</v>
       </c>
       <c r="J16">
-        <v>1.00690356947764</v>
+        <v>1.031689451587863</v>
       </c>
       <c r="K16">
-        <v>1.015825739058031</v>
+        <v>1.032076078951205</v>
       </c>
       <c r="L16">
-        <v>1.008021600406375</v>
+        <v>1.037605401292371</v>
       </c>
       <c r="M16">
-        <v>1.00771404665005</v>
+        <v>1.044825962752996</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.979960149754056</v>
+        <v>1.025691950566819</v>
       </c>
       <c r="D17">
-        <v>1.003018133851095</v>
+        <v>1.028894234723932</v>
       </c>
       <c r="E17">
-        <v>0.9953674458818018</v>
+        <v>1.034523594991379</v>
       </c>
       <c r="F17">
-        <v>0.9953461256975686</v>
+        <v>1.041834780692858</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039487822630395</v>
+        <v>1.030122651511215</v>
       </c>
       <c r="J17">
-        <v>1.008210825040191</v>
+        <v>1.031943591920998</v>
       </c>
       <c r="K17">
-        <v>1.01697345038804</v>
+        <v>1.03228502725792</v>
       </c>
       <c r="L17">
-        <v>1.00945719104769</v>
+        <v>1.037894588696133</v>
       </c>
       <c r="M17">
-        <v>1.009436249222437</v>
+        <v>1.045180412008272</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9811727977468865</v>
+        <v>1.025921557180135</v>
       </c>
       <c r="D18">
-        <v>1.003884316563444</v>
+        <v>1.02905877974382</v>
       </c>
       <c r="E18">
-        <v>0.9964063710487303</v>
+        <v>1.034734954313334</v>
       </c>
       <c r="F18">
-        <v>0.9965540445673624</v>
+        <v>1.042084028378346</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039825134054773</v>
+        <v>1.030162626539124</v>
       </c>
       <c r="J18">
-        <v>1.008966440487366</v>
+        <v>1.032091758614587</v>
       </c>
       <c r="K18">
-        <v>1.017636336803807</v>
+        <v>1.03240676185712</v>
       </c>
       <c r="L18">
-        <v>1.01028742487096</v>
+        <v>1.038063244948771</v>
       </c>
       <c r="M18">
-        <v>1.010432525984057</v>
+        <v>1.045387174383568</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9815845099396825</v>
+        <v>1.025999846669453</v>
       </c>
       <c r="D19">
-        <v>1.004178429442684</v>
+        <v>1.029114874814111</v>
       </c>
       <c r="E19">
-        <v>0.9967592603453856</v>
+        <v>1.034807031204786</v>
       </c>
       <c r="F19">
-        <v>0.9969643390045874</v>
+        <v>1.042169030253943</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039939360110236</v>
+        <v>1.030176216677733</v>
       </c>
       <c r="J19">
-        <v>1.009222935132035</v>
+        <v>1.032142267900379</v>
       </c>
       <c r="K19">
-        <v>1.0178612669615</v>
+        <v>1.032448246203135</v>
       </c>
       <c r="L19">
-        <v>1.010569323435317</v>
+        <v>1.038120748650061</v>
       </c>
       <c r="M19">
-        <v>1.010770852437633</v>
+        <v>1.04545767807247</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9797362454870124</v>
+        <v>1.025649715952317</v>
       </c>
       <c r="D20">
-        <v>1.002858216669834</v>
+        <v>1.028863962914274</v>
       </c>
       <c r="E20">
-        <v>0.9951756940089105</v>
+        <v>1.034484721226317</v>
       </c>
       <c r="F20">
-        <v>0.9951231844739857</v>
+        <v>1.041788940509296</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039425400568294</v>
+        <v>1.030115279274865</v>
       </c>
       <c r="J20">
-        <v>1.008071285085735</v>
+        <v>1.031916332208654</v>
       </c>
       <c r="K20">
-        <v>1.016850993284641</v>
+        <v>1.032262623704202</v>
       </c>
       <c r="L20">
-        <v>1.009303906794611</v>
+        <v>1.037863563883154</v>
       </c>
       <c r="M20">
-        <v>1.009252332296729</v>
+        <v>1.045142381080423</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9736004352520995</v>
+        <v>1.024511377485183</v>
       </c>
       <c r="D21">
-        <v>0.9984780703074404</v>
+        <v>1.028047498663144</v>
       </c>
       <c r="E21">
-        <v>0.9899301126693235</v>
+        <v>1.033437474306325</v>
       </c>
       <c r="F21">
-        <v>0.9890244337236727</v>
+        <v>1.040554262900752</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037698628600505</v>
+        <v>1.029914374709253</v>
       </c>
       <c r="J21">
-        <v>1.004244934809559</v>
+        <v>1.031180982709297</v>
       </c>
       <c r="K21">
-        <v>1.013488333593128</v>
+        <v>1.031657486449731</v>
       </c>
       <c r="L21">
-        <v>1.005104806955802</v>
+        <v>1.037027175311549</v>
       </c>
       <c r="M21">
-        <v>1.004216768338308</v>
+        <v>1.04411753391663</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9696399646319295</v>
+        <v>1.023795636523233</v>
       </c>
       <c r="D22">
-        <v>0.9956534627721256</v>
+        <v>1.027533604085711</v>
       </c>
       <c r="E22">
-        <v>0.9865534965433059</v>
+        <v>1.032779502162881</v>
       </c>
       <c r="F22">
-        <v>0.9850985165973277</v>
+        <v>1.039778764027915</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036568639392306</v>
+        <v>1.029785921168039</v>
       </c>
       <c r="J22">
-        <v>1.001773044194764</v>
+        <v>1.030718020130533</v>
       </c>
       <c r="K22">
-        <v>1.011311519986185</v>
+        <v>1.031275743215042</v>
       </c>
       <c r="L22">
-        <v>1.002396121946104</v>
+        <v>1.036501110612731</v>
       </c>
       <c r="M22">
-        <v>1.000971069695318</v>
+        <v>1.043473337688232</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.971749575077579</v>
+        <v>1.024175066449704</v>
       </c>
       <c r="D23">
-        <v>0.9971577496957003</v>
+        <v>1.027806081244407</v>
       </c>
       <c r="E23">
-        <v>0.988351213186399</v>
+        <v>1.033128260567862</v>
       </c>
       <c r="F23">
-        <v>0.9871887045995708</v>
+        <v>1.040189795473325</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037171967845083</v>
+        <v>1.029854219204063</v>
       </c>
       <c r="J23">
-        <v>1.003089914521775</v>
+        <v>1.030963503896917</v>
       </c>
       <c r="K23">
-        <v>1.012471600725972</v>
+        <v>1.031478232633884</v>
       </c>
       <c r="L23">
-        <v>1.003838766858664</v>
+        <v>1.036780005708352</v>
       </c>
       <c r="M23">
-        <v>1.002699492548875</v>
+        <v>1.043814822450355</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9798374508888582</v>
+        <v>1.025668799964337</v>
       </c>
       <c r="D24">
-        <v>1.002930499101941</v>
+        <v>1.028877641633324</v>
       </c>
       <c r="E24">
-        <v>0.9952623635005936</v>
+        <v>1.03450228644634</v>
       </c>
       <c r="F24">
-        <v>0.9952239511219522</v>
+        <v>1.041809653444177</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039453620905496</v>
+        <v>1.030118611205219</v>
       </c>
       <c r="J24">
-        <v>1.008134358417331</v>
+        <v>1.03192864991263</v>
       </c>
       <c r="K24">
-        <v>1.016906346595945</v>
+        <v>1.03227274734271</v>
       </c>
       <c r="L24">
-        <v>1.009373191313442</v>
+        <v>1.037877582728211</v>
       </c>
       <c r="M24">
-        <v>1.009335461893605</v>
+        <v>1.04515956556363</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9888098863179867</v>
+        <v>1.02740209470015</v>
       </c>
       <c r="D25">
-        <v>1.009341993524491</v>
+        <v>1.030118695850171</v>
       </c>
       <c r="E25">
-        <v>1.002965593873068</v>
+        <v>1.036098809767904</v>
       </c>
       <c r="F25">
-        <v>1.004180768767241</v>
+        <v>1.043692845305579</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041917929022527</v>
+        <v>1.030416101758365</v>
       </c>
       <c r="J25">
-        <v>1.013719801443112</v>
+        <v>1.033045937233087</v>
       </c>
       <c r="K25">
-        <v>1.021796997609417</v>
+        <v>1.033189187557989</v>
       </c>
       <c r="L25">
-        <v>1.015518046597116</v>
+        <v>1.039150400273363</v>
       </c>
       <c r="M25">
-        <v>1.016714528524554</v>
+        <v>1.046720774481905</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_122/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_122/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028784482558156</v>
+        <v>0.9956665060060199</v>
       </c>
       <c r="D2">
-        <v>1.031106560225713</v>
+        <v>1.014243875252665</v>
       </c>
       <c r="E2">
-        <v>1.037373818706158</v>
+        <v>1.008879030502457</v>
       </c>
       <c r="F2">
-        <v>1.045197633122813</v>
+        <v>1.011058179750873</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030645842577517</v>
+        <v>1.043744877169024</v>
       </c>
       <c r="J2">
-        <v>1.033934879726482</v>
+        <v>1.017977608225047</v>
       </c>
       <c r="K2">
-        <v>1.03391563697029</v>
+        <v>1.02550827379818</v>
       </c>
       <c r="L2">
-        <v>1.040164886640484</v>
+        <v>1.020216036892634</v>
       </c>
       <c r="M2">
-        <v>1.047966548433424</v>
+        <v>1.022365576623857</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029788170279179</v>
+        <v>1.000485985363262</v>
       </c>
       <c r="D3">
-        <v>1.031822661745746</v>
+        <v>1.017689062181489</v>
       </c>
       <c r="E3">
-        <v>1.038300522135754</v>
+        <v>1.013050021576653</v>
       </c>
       <c r="F3">
-        <v>1.046291838035138</v>
+        <v>1.015910568779835</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030808273457226</v>
+        <v>1.044995179503184</v>
       </c>
       <c r="J3">
-        <v>1.034579045482416</v>
+        <v>1.020963410689477</v>
       </c>
       <c r="K3">
-        <v>1.034440480933844</v>
+        <v>1.028100502522937</v>
       </c>
       <c r="L3">
-        <v>1.040901074917713</v>
+        <v>1.023518604126664</v>
       </c>
       <c r="M3">
-        <v>1.048871408493036</v>
+        <v>1.026343839282877</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030437600828379</v>
+        <v>1.003535379175918</v>
       </c>
       <c r="D4">
-        <v>1.032285477444552</v>
+        <v>1.019868252608541</v>
       </c>
       <c r="E4">
-        <v>1.038900590218198</v>
+        <v>1.015695502986527</v>
       </c>
       <c r="F4">
-        <v>1.047000598492137</v>
+        <v>1.01898906943312</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030911346223459</v>
+        <v>1.045770181876655</v>
       </c>
       <c r="J4">
-        <v>1.034995266394261</v>
+        <v>1.022849079911207</v>
       </c>
       <c r="K4">
-        <v>1.034778872226354</v>
+        <v>1.02973265629343</v>
       </c>
       <c r="L4">
-        <v>1.041377241684063</v>
+        <v>1.025608117079644</v>
       </c>
       <c r="M4">
-        <v>1.049457058461462</v>
+        <v>1.028863590327165</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030710615713436</v>
+        <v>1.004801413197975</v>
       </c>
       <c r="D5">
-        <v>1.032479912409638</v>
+        <v>1.020772768769724</v>
       </c>
       <c r="E5">
-        <v>1.039152960796598</v>
+        <v>1.016795337505183</v>
       </c>
       <c r="F5">
-        <v>1.047298737200053</v>
+        <v>1.02026915135499</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030954191198927</v>
+        <v>1.046088018847837</v>
       </c>
       <c r="J5">
-        <v>1.035170102035964</v>
+        <v>1.023631079390436</v>
       </c>
       <c r="K5">
-        <v>1.034920839546412</v>
+        <v>1.030408304572447</v>
       </c>
       <c r="L5">
-        <v>1.041577374598863</v>
+        <v>1.026475570462612</v>
       </c>
       <c r="M5">
-        <v>1.049703299845839</v>
+        <v>1.029910322932902</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030756455769146</v>
+        <v>1.005013069042798</v>
       </c>
       <c r="D6">
-        <v>1.032512551078431</v>
+        <v>1.020923970344943</v>
       </c>
       <c r="E6">
-        <v>1.039195340884218</v>
+        <v>1.016979294832778</v>
       </c>
       <c r="F6">
-        <v>1.047348806294415</v>
+        <v>1.020483270491587</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030961356493581</v>
+        <v>1.046140922291443</v>
       </c>
       <c r="J6">
-        <v>1.0351994492692</v>
+        <v>1.023761761067948</v>
       </c>
       <c r="K6">
-        <v>1.03494465931475</v>
+        <v>1.030521141320587</v>
       </c>
       <c r="L6">
-        <v>1.041610974987312</v>
+        <v>1.026620586802433</v>
       </c>
       <c r="M6">
-        <v>1.049744646842831</v>
+        <v>1.030085349846811</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030441248889518</v>
+        <v>1.003552357787893</v>
       </c>
       <c r="D7">
-        <v>1.032288076017131</v>
+        <v>1.019880383958957</v>
       </c>
       <c r="E7">
-        <v>1.038903962006546</v>
+        <v>1.015710246863182</v>
       </c>
       <c r="F7">
-        <v>1.04700458154603</v>
+        <v>1.019006228711046</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030911920633764</v>
+        <v>1.045774459941015</v>
       </c>
       <c r="J7">
-        <v>1.034997603121807</v>
+        <v>1.022859570749407</v>
       </c>
       <c r="K7">
-        <v>1.034780770350541</v>
+        <v>1.029741725234243</v>
       </c>
       <c r="L7">
-        <v>1.041379916057647</v>
+        <v>1.025619750672972</v>
       </c>
       <c r="M7">
-        <v>1.049460348617486</v>
+        <v>1.028877625616055</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029123687990597</v>
+        <v>0.9973099695200635</v>
       </c>
       <c r="D8">
-        <v>1.031348683273746</v>
+        <v>1.015418791721347</v>
       </c>
       <c r="E8">
-        <v>1.037686913194885</v>
+        <v>1.010299987197836</v>
       </c>
       <c r="F8">
-        <v>1.04556727191969</v>
+        <v>1.012711110910727</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030701156989108</v>
+        <v>1.044174574989787</v>
       </c>
       <c r="J8">
-        <v>1.03415270189175</v>
+        <v>1.018996492652776</v>
       </c>
       <c r="K8">
-        <v>1.03409326211532</v>
+        <v>1.026393878854547</v>
       </c>
       <c r="L8">
-        <v>1.04041372519336</v>
+        <v>1.021342222981678</v>
       </c>
       <c r="M8">
-        <v>1.048272319757126</v>
+        <v>1.023721611500295</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026801818607666</v>
+        <v>0.9857509593588104</v>
       </c>
       <c r="D9">
-        <v>1.029689190448959</v>
+        <v>1.007155555728921</v>
       </c>
       <c r="E9">
-        <v>1.035545635706725</v>
+        <v>1.000334998175082</v>
       </c>
       <c r="F9">
-        <v>1.043040215130842</v>
+        <v>1.001121895014845</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030314237353928</v>
+        <v>1.041086499706168</v>
       </c>
       <c r="J9">
-        <v>1.032659328914762</v>
+        <v>1.011817120218477</v>
       </c>
       <c r="K9">
-        <v>1.032872493271132</v>
+        <v>1.020133596102735</v>
       </c>
       <c r="L9">
-        <v>1.038709696391907</v>
+        <v>1.013422642604732</v>
       </c>
       <c r="M9">
-        <v>1.046179996570819</v>
+        <v>1.014196796441569</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025253814436939</v>
+        <v>0.9776245016876938</v>
       </c>
       <c r="D10">
-        <v>1.028580126586299</v>
+        <v>1.001350219842964</v>
       </c>
       <c r="E10">
-        <v>1.034120389714617</v>
+        <v>0.9933683548622169</v>
       </c>
       <c r="F10">
-        <v>1.04135935013802</v>
+        <v>0.9930218872755036</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030045886450925</v>
+        <v>1.038834566709903</v>
       </c>
       <c r="J10">
-        <v>1.031660721950384</v>
+        <v>1.00675489224089</v>
       </c>
       <c r="K10">
-        <v>1.032052446663378</v>
+        <v>1.015695138372584</v>
       </c>
       <c r="L10">
-        <v>1.037572717384434</v>
+        <v>1.007858387005861</v>
       </c>
       <c r="M10">
-        <v>1.044785909037275</v>
+        <v>1.007518287168457</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024583492176191</v>
+        <v>0.9739950142790114</v>
       </c>
       <c r="D11">
-        <v>1.028099253690401</v>
+        <v>0.998759606865162</v>
       </c>
       <c r="E11">
-        <v>1.033503789475113</v>
+        <v>0.9902669170798647</v>
       </c>
       <c r="F11">
-        <v>1.040632433129845</v>
+        <v>0.9894160203006117</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0299272267649</v>
+        <v>1.037810573214945</v>
       </c>
       <c r="J11">
-        <v>1.031227603061432</v>
+        <v>1.00449112637764</v>
       </c>
       <c r="K11">
-        <v>1.031695895887648</v>
+        <v>1.01370495315561</v>
       </c>
       <c r="L11">
-        <v>1.037080171633254</v>
+        <v>1.005374749313014</v>
       </c>
       <c r="M11">
-        <v>1.044182448012638</v>
+        <v>1.004540333790108</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024334500767586</v>
+        <v>0.9726292175541243</v>
       </c>
       <c r="D12">
-        <v>1.027920540753367</v>
+        <v>0.9977851866981614</v>
       </c>
       <c r="E12">
-        <v>1.033274838493953</v>
+        <v>0.9891014069966018</v>
       </c>
       <c r="F12">
-        <v>1.040362560637946</v>
+        <v>0.9880609317034587</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029882781895309</v>
+        <v>1.03742258693241</v>
       </c>
       <c r="J12">
-        <v>1.031066616368233</v>
+        <v>1.003638892069944</v>
       </c>
       <c r="K12">
-        <v>1.031563237590667</v>
+        <v>1.012954942404661</v>
       </c>
       <c r="L12">
-        <v>1.036897184641552</v>
+        <v>1.004440428474003</v>
       </c>
       <c r="M12">
-        <v>1.043958324354161</v>
+        <v>1.003420496528993</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024387910444246</v>
+        <v>0.9729230011862097</v>
       </c>
       <c r="D13">
-        <v>1.027958879583721</v>
+        <v>0.997994763184641</v>
       </c>
       <c r="E13">
-        <v>1.033323945545775</v>
+        <v>0.9893520363941023</v>
       </c>
       <c r="F13">
-        <v>1.040420443005336</v>
+        <v>0.9883523290439741</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029892332177841</v>
+        <v>1.037506161362751</v>
       </c>
       <c r="J13">
-        <v>1.031101153397776</v>
+        <v>1.003822223680071</v>
       </c>
       <c r="K13">
-        <v>1.031591703166298</v>
+        <v>1.013116318046918</v>
       </c>
       <c r="L13">
-        <v>1.036936437484557</v>
+        <v>1.004641387474084</v>
       </c>
       <c r="M13">
-        <v>1.044006398337861</v>
+        <v>1.003661337814395</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024562910547347</v>
+        <v>0.9738824831753933</v>
       </c>
       <c r="D14">
-        <v>1.02808448316252</v>
+        <v>0.9986793125194182</v>
       </c>
       <c r="E14">
-        <v>1.033484862643568</v>
+        <v>0.9901708555625827</v>
       </c>
       <c r="F14">
-        <v>1.040610122591801</v>
+        <v>0.9893043342193242</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029923560470435</v>
+        <v>1.03777865950823</v>
       </c>
       <c r="J14">
-        <v>1.031214298032477</v>
+        <v>1.004420915933082</v>
       </c>
       <c r="K14">
-        <v>1.031684934784614</v>
+        <v>1.013643179744357</v>
       </c>
       <c r="L14">
-        <v>1.03706504655373</v>
+        <v>1.005297762317825</v>
       </c>
       <c r="M14">
-        <v>1.044163921294784</v>
+        <v>1.004448051593453</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024670733375118</v>
+        <v>0.9744712820238726</v>
       </c>
       <c r="D15">
-        <v>1.028161859068883</v>
+        <v>0.9990994569987867</v>
       </c>
       <c r="E15">
-        <v>1.033584019835006</v>
+        <v>0.9906735449821797</v>
       </c>
       <c r="F15">
-        <v>1.04072700858945</v>
+        <v>0.9898887860501356</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029942752320873</v>
+        <v>1.037945534755455</v>
       </c>
       <c r="J15">
-        <v>1.031283996003652</v>
+        <v>1.004788264956221</v>
       </c>
       <c r="K15">
-        <v>1.031742348800371</v>
+        <v>1.013966354069313</v>
       </c>
       <c r="L15">
-        <v>1.037144282410615</v>
+        <v>1.005700595007723</v>
       </c>
       <c r="M15">
-        <v>1.044260980193173</v>
+        <v>1.004930933923557</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025298300970698</v>
+        <v>0.9778629621012908</v>
       </c>
       <c r="D16">
-        <v>1.028612027115221</v>
+        <v>1.001520480392867</v>
       </c>
       <c r="E16">
-        <v>1.034161322882121</v>
+        <v>0.9935723367563718</v>
       </c>
       <c r="F16">
-        <v>1.041407612398603</v>
+        <v>0.993259045281637</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030053709675769</v>
+        <v>1.038901471942387</v>
       </c>
       <c r="J16">
-        <v>1.031689451587863</v>
+        <v>1.00690356947764</v>
       </c>
       <c r="K16">
-        <v>1.032076078951205</v>
+        <v>1.015825739058031</v>
       </c>
       <c r="L16">
-        <v>1.037605401292371</v>
+        <v>1.008021600406374</v>
       </c>
       <c r="M16">
-        <v>1.044825962752996</v>
+        <v>1.007714046650049</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025691950566819</v>
+        <v>0.9799601497540562</v>
       </c>
       <c r="D17">
-        <v>1.028894234723932</v>
+        <v>1.003018133851095</v>
       </c>
       <c r="E17">
-        <v>1.034523594991379</v>
+        <v>0.9953674458818018</v>
       </c>
       <c r="F17">
-        <v>1.041834780692858</v>
+        <v>0.9953461256975685</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030122651511215</v>
+        <v>1.039487822630395</v>
       </c>
       <c r="J17">
-        <v>1.031943591920998</v>
+        <v>1.008210825040191</v>
       </c>
       <c r="K17">
-        <v>1.03228502725792</v>
+        <v>1.01697345038804</v>
       </c>
       <c r="L17">
-        <v>1.037894588696133</v>
+        <v>1.00945719104769</v>
       </c>
       <c r="M17">
-        <v>1.045180412008272</v>
+        <v>1.009436249222437</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025921557180135</v>
+        <v>0.9811727977468859</v>
       </c>
       <c r="D18">
-        <v>1.02905877974382</v>
+        <v>1.003884316563444</v>
       </c>
       <c r="E18">
-        <v>1.034734954313334</v>
+        <v>0.9964063710487299</v>
       </c>
       <c r="F18">
-        <v>1.042084028378346</v>
+        <v>0.996554044567362</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030162626539124</v>
+        <v>1.039825134054772</v>
       </c>
       <c r="J18">
-        <v>1.032091758614587</v>
+        <v>1.008966440487366</v>
       </c>
       <c r="K18">
-        <v>1.03240676185712</v>
+        <v>1.017636336803806</v>
       </c>
       <c r="L18">
-        <v>1.038063244948771</v>
+        <v>1.01028742487096</v>
       </c>
       <c r="M18">
-        <v>1.045387174383568</v>
+        <v>1.010432525984057</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025999846669453</v>
+        <v>0.9815845099396819</v>
       </c>
       <c r="D19">
-        <v>1.029114874814111</v>
+        <v>1.004178429442684</v>
       </c>
       <c r="E19">
-        <v>1.034807031204786</v>
+        <v>0.9967592603453853</v>
       </c>
       <c r="F19">
-        <v>1.042169030253943</v>
+        <v>0.9969643390045868</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030176216677733</v>
+        <v>1.039939360110236</v>
       </c>
       <c r="J19">
-        <v>1.032142267900379</v>
+        <v>1.009222935132035</v>
       </c>
       <c r="K19">
-        <v>1.032448246203135</v>
+        <v>1.017861266961499</v>
       </c>
       <c r="L19">
-        <v>1.038120748650061</v>
+        <v>1.010569323435317</v>
       </c>
       <c r="M19">
-        <v>1.04545767807247</v>
+        <v>1.010770852437632</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025649715952317</v>
+        <v>0.9797362454870123</v>
       </c>
       <c r="D20">
-        <v>1.028863962914274</v>
+        <v>1.002858216669834</v>
       </c>
       <c r="E20">
-        <v>1.034484721226317</v>
+        <v>0.9951756940089104</v>
       </c>
       <c r="F20">
-        <v>1.041788940509296</v>
+        <v>0.9951231844739857</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030115279274865</v>
+        <v>1.039425400568293</v>
       </c>
       <c r="J20">
-        <v>1.031916332208654</v>
+        <v>1.008071285085734</v>
       </c>
       <c r="K20">
-        <v>1.032262623704202</v>
+        <v>1.016850993284641</v>
       </c>
       <c r="L20">
-        <v>1.037863563883154</v>
+        <v>1.009303906794611</v>
       </c>
       <c r="M20">
-        <v>1.045142381080423</v>
+        <v>1.009252332296729</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024511377485183</v>
+        <v>0.9736004352521003</v>
       </c>
       <c r="D21">
-        <v>1.028047498663144</v>
+        <v>0.9984780703074412</v>
       </c>
       <c r="E21">
-        <v>1.033437474306325</v>
+        <v>0.9899301126693243</v>
       </c>
       <c r="F21">
-        <v>1.040554262900752</v>
+        <v>0.9890244337236733</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029914374709253</v>
+        <v>1.037698628600505</v>
       </c>
       <c r="J21">
-        <v>1.031180982709297</v>
+        <v>1.00424493480956</v>
       </c>
       <c r="K21">
-        <v>1.031657486449731</v>
+        <v>1.013488333593128</v>
       </c>
       <c r="L21">
-        <v>1.037027175311549</v>
+        <v>1.005104806955803</v>
       </c>
       <c r="M21">
-        <v>1.04411753391663</v>
+        <v>1.004216768338309</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023795636523233</v>
+        <v>0.9696399646319289</v>
       </c>
       <c r="D22">
-        <v>1.027533604085711</v>
+        <v>0.9956534627721254</v>
       </c>
       <c r="E22">
-        <v>1.032779502162881</v>
+        <v>0.9865534965433054</v>
       </c>
       <c r="F22">
-        <v>1.039778764027915</v>
+        <v>0.9850985165973272</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029785921168039</v>
+        <v>1.036568639392306</v>
       </c>
       <c r="J22">
-        <v>1.030718020130533</v>
+        <v>1.001773044194764</v>
       </c>
       <c r="K22">
-        <v>1.031275743215042</v>
+        <v>1.011311519986185</v>
       </c>
       <c r="L22">
-        <v>1.036501110612731</v>
+        <v>1.002396121946104</v>
       </c>
       <c r="M22">
-        <v>1.043473337688232</v>
+        <v>1.000971069695318</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>1.024175066449704</v>
+        <v>0.9717495750775786</v>
       </c>
       <c r="D23">
-        <v>1.027806081244407</v>
+        <v>0.9971577496956999</v>
       </c>
       <c r="E23">
-        <v>1.033128260567862</v>
+        <v>0.9883512131863984</v>
       </c>
       <c r="F23">
-        <v>1.040189795473325</v>
+        <v>0.9871887045995701</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029854219204063</v>
+        <v>1.037171967845083</v>
       </c>
       <c r="J23">
-        <v>1.030963503896917</v>
+        <v>1.003089914521775</v>
       </c>
       <c r="K23">
-        <v>1.031478232633884</v>
+        <v>1.012471600725972</v>
       </c>
       <c r="L23">
-        <v>1.036780005708352</v>
+        <v>1.003838766858663</v>
       </c>
       <c r="M23">
-        <v>1.043814822450355</v>
+        <v>1.002699492548874</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025668799964337</v>
+        <v>0.9798374508888578</v>
       </c>
       <c r="D24">
-        <v>1.028877641633324</v>
+        <v>1.002930499101941</v>
       </c>
       <c r="E24">
-        <v>1.03450228644634</v>
+        <v>0.9952623635005933</v>
       </c>
       <c r="F24">
-        <v>1.041809653444177</v>
+        <v>0.9952239511219517</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030118611205219</v>
+        <v>1.039453620905496</v>
       </c>
       <c r="J24">
-        <v>1.03192864991263</v>
+        <v>1.00813435841733</v>
       </c>
       <c r="K24">
-        <v>1.03227274734271</v>
+        <v>1.016906346595945</v>
       </c>
       <c r="L24">
-        <v>1.037877582728211</v>
+        <v>1.009373191313441</v>
       </c>
       <c r="M24">
-        <v>1.04515956556363</v>
+        <v>1.009335461893604</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02740209470015</v>
+        <v>0.9888098863179863</v>
       </c>
       <c r="D25">
-        <v>1.030118695850171</v>
+        <v>1.009341993524491</v>
       </c>
       <c r="E25">
-        <v>1.036098809767904</v>
+        <v>1.002965593873068</v>
       </c>
       <c r="F25">
-        <v>1.043692845305579</v>
+        <v>1.004180768767241</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030416101758365</v>
+        <v>1.041917929022527</v>
       </c>
       <c r="J25">
-        <v>1.033045937233087</v>
+        <v>1.013719801443111</v>
       </c>
       <c r="K25">
-        <v>1.033189187557989</v>
+        <v>1.021796997609417</v>
       </c>
       <c r="L25">
-        <v>1.039150400273363</v>
+        <v>1.015518046597115</v>
       </c>
       <c r="M25">
-        <v>1.046720774481905</v>
+        <v>1.016714528524554</v>
       </c>
     </row>
   </sheetData>
